--- a/colbert/output/Results_colbert_avg_steps_bm25_extraQuestions.xlsx
+++ b/colbert/output/Results_colbert_avg_steps_bm25_extraQuestions.xlsx
@@ -1002,11 +1002,11 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>109439</v>
+        <v>84797</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>berry  good sandwich spread</t>
+          <t>love is in the air  beef fondue   sauces</t>
         </is>
       </c>
     </row>
@@ -1027,11 +1027,11 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>84797</v>
+        <v>109439</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>love is in the air  beef fondue   sauces</t>
+          <t>berry  good sandwich spread</t>
         </is>
       </c>
     </row>
@@ -1052,11 +1052,11 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>62368</v>
+        <v>42522</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>the best  chocolate chip cheesecake ever</t>
+          <t>the man s  taco dip</t>
         </is>
       </c>
     </row>
@@ -1077,11 +1077,11 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>42522</v>
+        <v>62368</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>the man s  taco dip</t>
+          <t>the best  chocolate chip cheesecake ever</t>
         </is>
       </c>
     </row>
@@ -1252,11 +1252,11 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>93249</v>
+        <v>76808</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>grilled  ranch bread</t>
+          <t>cream  of spinach soup</t>
         </is>
       </c>
     </row>
@@ -1277,11 +1277,11 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>76808</v>
+        <v>93249</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>cream  of spinach soup</t>
+          <t>grilled  ranch bread</t>
         </is>
       </c>
     </row>
@@ -1327,11 +1327,11 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>42522</v>
+        <v>112959</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>the man s  taco dip</t>
+          <t>sour cream  avocado dip  vegan</t>
         </is>
       </c>
     </row>
@@ -1377,11 +1377,11 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>24701</v>
+        <v>76808</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>cream  of spinach soup  vegan</t>
+          <t>cream  of spinach soup</t>
         </is>
       </c>
     </row>
@@ -1402,11 +1402,11 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>76808</v>
+        <v>24701</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>cream  of spinach soup</t>
+          <t>cream  of spinach soup  vegan</t>
         </is>
       </c>
     </row>
@@ -1427,11 +1427,11 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>93249</v>
+        <v>74805</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>grilled  ranch bread</t>
+          <t>never weep  whipped cream</t>
         </is>
       </c>
     </row>
@@ -1452,11 +1452,11 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>74805</v>
+        <v>93249</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>never weep  whipped cream</t>
+          <t>grilled  ranch bread</t>
         </is>
       </c>
     </row>
@@ -2652,11 +2652,11 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>32271</v>
+        <v>62368</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>one pot  brownies</t>
+          <t>the best  chocolate chip cheesecake ever</t>
         </is>
       </c>
     </row>
@@ -2677,11 +2677,11 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>62368</v>
+        <v>32271</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>the best  chocolate chip cheesecake ever</t>
+          <t>one pot  brownies</t>
         </is>
       </c>
     </row>
@@ -2727,11 +2727,11 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>58651</v>
+        <v>62368</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>turtle  squares</t>
+          <t>the best  chocolate chip cheesecake ever</t>
         </is>
       </c>
     </row>
@@ -2752,11 +2752,11 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>62368</v>
+        <v>58651</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>the best  chocolate chip cheesecake ever</t>
+          <t>turtle  squares</t>
         </is>
       </c>
     </row>
@@ -3852,11 +3852,11 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>19208</v>
+        <v>63593</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>red hot  applesauce</t>
+          <t>more  more    apple pear jigglers</t>
         </is>
       </c>
     </row>
@@ -3877,11 +3877,11 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>63593</v>
+        <v>19208</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>more  more    apple pear jigglers</t>
+          <t>red hot  applesauce</t>
         </is>
       </c>
     </row>
@@ -5102,11 +5102,11 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>39363</v>
+        <v>83062</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>the best  banana bread  or muffins</t>
+          <t>spicy  banana bread</t>
         </is>
       </c>
     </row>
@@ -5127,11 +5127,11 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>83062</v>
+        <v>39363</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>spicy  banana bread</t>
+          <t>the best  banana bread  or muffins</t>
         </is>
       </c>
     </row>
@@ -5302,11 +5302,11 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>107699</v>
+        <v>39363</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>deep fried dessert thingys</t>
+          <t>the best  banana bread  or muffins</t>
         </is>
       </c>
     </row>
@@ -5327,11 +5327,11 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>39363</v>
+        <v>107699</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>the best  banana bread  or muffins</t>
+          <t>deep fried dessert thingys</t>
         </is>
       </c>
     </row>
@@ -5452,11 +5452,11 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>93958</v>
+        <v>39363</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>i yam what i yam  muffins</t>
+          <t>the best  banana bread  or muffins</t>
         </is>
       </c>
     </row>
@@ -6077,11 +6077,11 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>47366</v>
+        <v>38276</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>forgotten  minestrone</t>
+          <t>now and later  vegetarian empanadas</t>
         </is>
       </c>
     </row>
@@ -6277,11 +6277,11 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>35964</v>
+        <v>62368</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>rich  hot fudge cake</t>
+          <t>the best  chocolate chip cheesecake ever</t>
         </is>
       </c>
     </row>
@@ -6302,11 +6302,11 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>24701</v>
+        <v>35964</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>cream  of spinach soup  vegan</t>
+          <t>rich  hot fudge cake</t>
         </is>
       </c>
     </row>
@@ -6327,11 +6327,11 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>112959</v>
+        <v>24701</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>sour cream  avocado dip  vegan</t>
+          <t>cream  of spinach soup  vegan</t>
         </is>
       </c>
     </row>
@@ -6427,11 +6427,11 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>90921</v>
+        <v>39363</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>i stole the idea from mirj  sesame noodles</t>
+          <t>the best  banana bread  or muffins</t>
         </is>
       </c>
     </row>
@@ -6452,11 +6452,11 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>24701</v>
+        <v>62368</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>cream  of spinach soup  vegan</t>
+          <t>the best  chocolate chip cheesecake ever</t>
         </is>
       </c>
     </row>
@@ -7502,11 +7502,11 @@
         </is>
       </c>
       <c r="D283" t="n">
-        <v>32271</v>
+        <v>83025</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>one pot  brownies</t>
+          <t>jeanne s style  birthday cake</t>
         </is>
       </c>
     </row>
@@ -7527,11 +7527,11 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>58651</v>
+        <v>35964</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>turtle  squares</t>
+          <t>rich  hot fudge cake</t>
         </is>
       </c>
     </row>
@@ -7552,11 +7552,11 @@
         </is>
       </c>
       <c r="D285" t="n">
-        <v>83025</v>
+        <v>32271</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>jeanne s style  birthday cake</t>
+          <t>one pot  brownies</t>
         </is>
       </c>
     </row>
@@ -7577,11 +7577,11 @@
         </is>
       </c>
       <c r="D286" t="n">
-        <v>35964</v>
+        <v>58651</v>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>rich  hot fudge cake</t>
+          <t>turtle  squares</t>
         </is>
       </c>
     </row>
@@ -7702,11 +7702,11 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>71635</v>
+        <v>52804</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>no bake  cookie crumble cheesecake</t>
+          <t>jiffy  extra moist carrot cake</t>
         </is>
       </c>
     </row>
@@ -7802,11 +7802,11 @@
         </is>
       </c>
       <c r="D295" t="n">
-        <v>71635</v>
+        <v>52804</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>no bake  cookie crumble cheesecake</t>
+          <t>jiffy  extra moist carrot cake</t>
         </is>
       </c>
     </row>
@@ -7827,11 +7827,11 @@
         </is>
       </c>
       <c r="D296" t="n">
-        <v>52804</v>
+        <v>71635</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>jiffy  extra moist carrot cake</t>
+          <t>no bake  cookie crumble cheesecake</t>
         </is>
       </c>
     </row>
@@ -7902,11 +7902,11 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>42522</v>
+        <v>52804</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>the man s  taco dip</t>
+          <t>jiffy  extra moist carrot cake</t>
         </is>
       </c>
     </row>
@@ -7927,11 +7927,11 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>52804</v>
+        <v>42522</v>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>jiffy  extra moist carrot cake</t>
+          <t>the man s  taco dip</t>
         </is>
       </c>
     </row>
@@ -7952,11 +7952,11 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>58651</v>
+        <v>83025</v>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>turtle  squares</t>
+          <t>jeanne s style  birthday cake</t>
         </is>
       </c>
     </row>
@@ -8502,11 +8502,11 @@
         </is>
       </c>
       <c r="D323" t="n">
-        <v>39363</v>
+        <v>62368</v>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>the best  banana bread  or muffins</t>
+          <t>the best  chocolate chip cheesecake ever</t>
         </is>
       </c>
     </row>
@@ -8527,11 +8527,11 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>62368</v>
+        <v>39363</v>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>the best  chocolate chip cheesecake ever</t>
+          <t>the best  banana bread  or muffins</t>
         </is>
       </c>
     </row>
@@ -8777,11 +8777,11 @@
         </is>
       </c>
       <c r="D334" t="n">
-        <v>71635</v>
+        <v>62368</v>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>no bake  cookie crumble cheesecake</t>
+          <t>the best  chocolate chip cheesecake ever</t>
         </is>
       </c>
     </row>
@@ -8802,11 +8802,11 @@
         </is>
       </c>
       <c r="D335" t="n">
-        <v>49262</v>
+        <v>71635</v>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>easiest ever  hollandaise sauce</t>
+          <t>no bake  cookie crumble cheesecake</t>
         </is>
       </c>
     </row>
@@ -8827,11 +8827,11 @@
         </is>
       </c>
       <c r="D336" t="n">
-        <v>62368</v>
+        <v>49262</v>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>the best  chocolate chip cheesecake ever</t>
+          <t>easiest ever  hollandaise sauce</t>
         </is>
       </c>
     </row>
@@ -9127,11 +9127,11 @@
         </is>
       </c>
       <c r="D348" t="n">
-        <v>84797</v>
+        <v>62368</v>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>love is in the air  beef fondue   sauces</t>
+          <t>the best  chocolate chip cheesecake ever</t>
         </is>
       </c>
     </row>
@@ -9152,11 +9152,11 @@
         </is>
       </c>
       <c r="D349" t="n">
-        <v>62368</v>
+        <v>84797</v>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>the best  chocolate chip cheesecake ever</t>
+          <t>love is in the air  beef fondue   sauces</t>
         </is>
       </c>
     </row>
@@ -9827,11 +9827,11 @@
         </is>
       </c>
       <c r="D376" t="n">
-        <v>42570</v>
+        <v>41756</v>
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>pick me up  party chicken kabobs</t>
+          <t>souper  easy sweet   sour meatballs</t>
         </is>
       </c>
     </row>
@@ -11027,11 +11027,11 @@
         </is>
       </c>
       <c r="D424" t="n">
-        <v>59952</v>
+        <v>112140</v>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>global gourmet  taco casserole</t>
+          <t>all in the kitchen  chili</t>
         </is>
       </c>
     </row>
@@ -11277,11 +11277,11 @@
         </is>
       </c>
       <c r="D434" t="n">
-        <v>99024</v>
+        <v>93249</v>
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>smoked  salmon  cracker spread</t>
+          <t>grilled  ranch bread</t>
         </is>
       </c>
     </row>
@@ -11302,11 +11302,11 @@
         </is>
       </c>
       <c r="D435" t="n">
-        <v>107699</v>
+        <v>58224</v>
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>deep fried dessert thingys</t>
+          <t>immoral  sandwich filling  loose meat</t>
         </is>
       </c>
     </row>
@@ -11327,11 +11327,11 @@
         </is>
       </c>
       <c r="D436" t="n">
-        <v>93249</v>
+        <v>99024</v>
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>grilled  ranch bread</t>
+          <t>smoked  salmon  cracker spread</t>
         </is>
       </c>
     </row>
@@ -11377,11 +11377,11 @@
         </is>
       </c>
       <c r="D438" t="n">
-        <v>62368</v>
+        <v>54100</v>
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>the best  chocolate chip cheesecake ever</t>
+          <t>grilled  venison burgers</t>
         </is>
       </c>
     </row>
@@ -11402,11 +11402,11 @@
         </is>
       </c>
       <c r="D439" t="n">
-        <v>71635</v>
+        <v>33606</v>
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>no bake  cookie crumble cheesecake</t>
+          <t>italian sandwich  pasta salad</t>
         </is>
       </c>
     </row>
@@ -11427,11 +11427,11 @@
         </is>
       </c>
       <c r="D440" t="n">
-        <v>54100</v>
+        <v>62368</v>
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>grilled  venison burgers</t>
+          <t>the best  chocolate chip cheesecake ever</t>
         </is>
       </c>
     </row>
@@ -11452,11 +11452,11 @@
         </is>
       </c>
       <c r="D441" t="n">
-        <v>99024</v>
+        <v>109439</v>
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>smoked  salmon  cracker spread</t>
+          <t>berry  good sandwich spread</t>
         </is>
       </c>
     </row>
@@ -11627,11 +11627,11 @@
         </is>
       </c>
       <c r="D448" t="n">
-        <v>83133</v>
+        <v>58224</v>
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>stove top  bbq  beef or pork ribs</t>
+          <t>immoral  sandwich filling  loose meat</t>
         </is>
       </c>
     </row>
@@ -11652,11 +11652,11 @@
         </is>
       </c>
       <c r="D449" t="n">
-        <v>58224</v>
+        <v>109439</v>
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>immoral  sandwich filling  loose meat</t>
+          <t>berry  good sandwich spread</t>
         </is>
       </c>
     </row>
@@ -11677,11 +11677,11 @@
         </is>
       </c>
       <c r="D450" t="n">
-        <v>109439</v>
+        <v>83133</v>
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>berry  good sandwich spread</t>
+          <t>stove top  bbq  beef or pork ribs</t>
         </is>
       </c>
     </row>
@@ -11777,11 +11777,11 @@
         </is>
       </c>
       <c r="D454" t="n">
-        <v>87098</v>
+        <v>44045</v>
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>homemade  vegetable soup from a can</t>
+          <t>mennonite  corn fritters</t>
         </is>
       </c>
     </row>
@@ -11802,11 +11802,11 @@
         </is>
       </c>
       <c r="D455" t="n">
-        <v>44045</v>
+        <v>87098</v>
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>mennonite  corn fritters</t>
+          <t>homemade  vegetable soup from a can</t>
         </is>
       </c>
     </row>
@@ -11827,11 +11827,11 @@
         </is>
       </c>
       <c r="D456" t="n">
-        <v>39959</v>
+        <v>112140</v>
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>calm your nerves  tonic</t>
+          <t>all in the kitchen  chili</t>
         </is>
       </c>
     </row>
@@ -12502,11 +12502,11 @@
         </is>
       </c>
       <c r="D483" t="n">
-        <v>83133</v>
+        <v>87098</v>
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>stove top  bbq  beef or pork ribs</t>
+          <t>homemade  vegetable soup from a can</t>
         </is>
       </c>
     </row>
@@ -12527,11 +12527,11 @@
         </is>
       </c>
       <c r="D484" t="n">
-        <v>87098</v>
+        <v>83133</v>
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t>homemade  vegetable soup from a can</t>
+          <t>stove top  bbq  beef or pork ribs</t>
         </is>
       </c>
     </row>
@@ -12577,11 +12577,11 @@
         </is>
       </c>
       <c r="D486" t="n">
-        <v>39959</v>
+        <v>112140</v>
       </c>
       <c r="E486" t="inlineStr">
         <is>
-          <t>calm your nerves  tonic</t>
+          <t>all in the kitchen  chili</t>
         </is>
       </c>
     </row>
@@ -12627,11 +12627,11 @@
         </is>
       </c>
       <c r="D488" t="n">
-        <v>100870</v>
+        <v>25775</v>
       </c>
       <c r="E488" t="inlineStr">
         <is>
-          <t>leftovers  spaghetti sauce</t>
+          <t>how i got my family to eat spinach  spinach casserole</t>
         </is>
       </c>
     </row>
@@ -12652,11 +12652,11 @@
         </is>
       </c>
       <c r="D489" t="n">
-        <v>35173</v>
+        <v>100870</v>
       </c>
       <c r="E489" t="inlineStr">
         <is>
-          <t>italian  gut busters</t>
+          <t>leftovers  spaghetti sauce</t>
         </is>
       </c>
     </row>
@@ -12677,11 +12677,11 @@
         </is>
       </c>
       <c r="D490" t="n">
-        <v>107699</v>
+        <v>35173</v>
       </c>
       <c r="E490" t="inlineStr">
         <is>
-          <t>deep fried dessert thingys</t>
+          <t>italian  gut busters</t>
         </is>
       </c>
     </row>
@@ -12702,11 +12702,11 @@
         </is>
       </c>
       <c r="D491" t="n">
-        <v>35653</v>
+        <v>107699</v>
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t>make it your way  shortcakes</t>
+          <t>deep fried dessert thingys</t>
         </is>
       </c>
     </row>
@@ -12852,11 +12852,11 @@
         </is>
       </c>
       <c r="D497" t="n">
-        <v>93958</v>
+        <v>25775</v>
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>i yam what i yam  muffins</t>
+          <t>how i got my family to eat spinach  spinach casserole</t>
         </is>
       </c>
     </row>
@@ -12877,11 +12877,11 @@
         </is>
       </c>
       <c r="D498" t="n">
-        <v>25775</v>
+        <v>93958</v>
       </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t>how i got my family to eat spinach  spinach casserole</t>
+          <t>i yam what i yam  muffins</t>
         </is>
       </c>
     </row>
@@ -13027,11 +13027,11 @@
         </is>
       </c>
       <c r="D504" t="n">
-        <v>25274</v>
+        <v>23933</v>
       </c>
       <c r="E504" t="inlineStr">
         <is>
-          <t>aww  marinated olives</t>
+          <t>chinese  candy</t>
         </is>
       </c>
     </row>
@@ -13777,11 +13777,11 @@
         </is>
       </c>
       <c r="D534" t="n">
-        <v>25274</v>
+        <v>23933</v>
       </c>
       <c r="E534" t="inlineStr">
         <is>
-          <t>aww  marinated olives</t>
+          <t>chinese  candy</t>
         </is>
       </c>
     </row>
@@ -14177,11 +14177,11 @@
         </is>
       </c>
       <c r="D550" t="n">
-        <v>35653</v>
+        <v>25775</v>
       </c>
       <c r="E550" t="inlineStr">
         <is>
-          <t>make it your way  shortcakes</t>
+          <t>how i got my family to eat spinach  spinach casserole</t>
         </is>
       </c>
     </row>
@@ -14202,11 +14202,11 @@
         </is>
       </c>
       <c r="D551" t="n">
-        <v>83133</v>
+        <v>35653</v>
       </c>
       <c r="E551" t="inlineStr">
         <is>
-          <t>stove top  bbq  beef or pork ribs</t>
+          <t>make it your way  shortcakes</t>
         </is>
       </c>
     </row>
@@ -14252,11 +14252,11 @@
         </is>
       </c>
       <c r="D553" t="n">
-        <v>58224</v>
+        <v>112140</v>
       </c>
       <c r="E553" t="inlineStr">
         <is>
-          <t>immoral  sandwich filling  loose meat</t>
+          <t>all in the kitchen  chili</t>
         </is>
       </c>
     </row>
@@ -14327,11 +14327,11 @@
         </is>
       </c>
       <c r="D556" t="n">
-        <v>33606</v>
+        <v>58224</v>
       </c>
       <c r="E556" t="inlineStr">
         <is>
-          <t>italian sandwich  pasta salad</t>
+          <t>immoral  sandwich filling  loose meat</t>
         </is>
       </c>
     </row>
@@ -14802,11 +14802,11 @@
         </is>
       </c>
       <c r="D575" t="n">
-        <v>52804</v>
+        <v>74805</v>
       </c>
       <c r="E575" t="inlineStr">
         <is>
-          <t>jiffy  extra moist carrot cake</t>
+          <t>never weep  whipped cream</t>
         </is>
       </c>
     </row>
@@ -14827,11 +14827,11 @@
         </is>
       </c>
       <c r="D576" t="n">
-        <v>74805</v>
+        <v>52804</v>
       </c>
       <c r="E576" t="inlineStr">
         <is>
-          <t>never weep  whipped cream</t>
+          <t>jiffy  extra moist carrot cake</t>
         </is>
       </c>
     </row>
@@ -14977,11 +14977,11 @@
         </is>
       </c>
       <c r="D582" t="n">
-        <v>22123</v>
+        <v>63593</v>
       </c>
       <c r="E582" t="inlineStr">
         <is>
-          <t>i don t feel like cooking tonight  casserole</t>
+          <t>more  more    apple pear jigglers</t>
         </is>
       </c>
     </row>
@@ -15002,11 +15002,11 @@
         </is>
       </c>
       <c r="D583" t="n">
-        <v>58224</v>
+        <v>22123</v>
       </c>
       <c r="E583" t="inlineStr">
         <is>
-          <t>immoral  sandwich filling  loose meat</t>
+          <t>i don t feel like cooking tonight  casserole</t>
         </is>
       </c>
     </row>
@@ -15027,11 +15027,11 @@
         </is>
       </c>
       <c r="D584" t="n">
-        <v>39959</v>
+        <v>112140</v>
       </c>
       <c r="E584" t="inlineStr">
         <is>
-          <t>calm your nerves  tonic</t>
+          <t>all in the kitchen  chili</t>
         </is>
       </c>
     </row>
@@ -15052,11 +15052,11 @@
         </is>
       </c>
       <c r="D585" t="n">
-        <v>63593</v>
+        <v>39959</v>
       </c>
       <c r="E585" t="inlineStr">
         <is>
-          <t>more  more    apple pear jigglers</t>
+          <t>calm your nerves  tonic</t>
         </is>
       </c>
     </row>
@@ -15077,11 +15077,11 @@
         </is>
       </c>
       <c r="D586" t="n">
-        <v>33606</v>
+        <v>58224</v>
       </c>
       <c r="E586" t="inlineStr">
         <is>
-          <t>italian sandwich  pasta salad</t>
+          <t>immoral  sandwich filling  loose meat</t>
         </is>
       </c>
     </row>
@@ -15127,11 +15127,11 @@
         </is>
       </c>
       <c r="D588" t="n">
-        <v>35964</v>
+        <v>25775</v>
       </c>
       <c r="E588" t="inlineStr">
         <is>
-          <t>rich  hot fudge cake</t>
+          <t>how i got my family to eat spinach  spinach casserole</t>
         </is>
       </c>
     </row>
@@ -15152,11 +15152,11 @@
         </is>
       </c>
       <c r="D589" t="n">
-        <v>39959</v>
+        <v>35964</v>
       </c>
       <c r="E589" t="inlineStr">
         <is>
-          <t>calm your nerves  tonic</t>
+          <t>rich  hot fudge cake</t>
         </is>
       </c>
     </row>
@@ -15177,11 +15177,11 @@
         </is>
       </c>
       <c r="D590" t="n">
-        <v>76808</v>
+        <v>39959</v>
       </c>
       <c r="E590" t="inlineStr">
         <is>
-          <t>cream  of spinach soup</t>
+          <t>calm your nerves  tonic</t>
         </is>
       </c>
     </row>
@@ -15202,11 +15202,11 @@
         </is>
       </c>
       <c r="D591" t="n">
-        <v>32169</v>
+        <v>76808</v>
       </c>
       <c r="E591" t="inlineStr">
         <is>
-          <t>make that chicken dance  salsa pasta</t>
+          <t>cream  of spinach soup</t>
         </is>
       </c>
     </row>
@@ -16002,11 +16002,11 @@
         </is>
       </c>
       <c r="D623" t="n">
-        <v>39363</v>
+        <v>75452</v>
       </c>
       <c r="E623" t="inlineStr">
         <is>
-          <t>the best  banana bread  or muffins</t>
+          <t>beat this  banana bread</t>
         </is>
       </c>
     </row>
@@ -16027,11 +16027,11 @@
         </is>
       </c>
       <c r="D624" t="n">
-        <v>75452</v>
+        <v>83062</v>
       </c>
       <c r="E624" t="inlineStr">
         <is>
-          <t>beat this  banana bread</t>
+          <t>spicy  banana bread</t>
         </is>
       </c>
     </row>
@@ -16052,11 +16052,11 @@
         </is>
       </c>
       <c r="D625" t="n">
-        <v>95926</v>
+        <v>39363</v>
       </c>
       <c r="E625" t="inlineStr">
         <is>
-          <t>say what   banana sandwich</t>
+          <t>the best  banana bread  or muffins</t>
         </is>
       </c>
     </row>
@@ -16077,11 +16077,11 @@
         </is>
       </c>
       <c r="D626" t="n">
-        <v>83062</v>
+        <v>95926</v>
       </c>
       <c r="E626" t="inlineStr">
         <is>
-          <t>spicy  banana bread</t>
+          <t>say what   banana sandwich</t>
         </is>
       </c>
     </row>
@@ -17852,11 +17852,11 @@
         </is>
       </c>
       <c r="D697" t="n">
-        <v>83133</v>
+        <v>83873</v>
       </c>
       <c r="E697" t="inlineStr">
         <is>
-          <t>stove top  bbq  beef or pork ribs</t>
+          <t>crispy crunchy  chicken</t>
         </is>
       </c>
     </row>
@@ -17877,11 +17877,11 @@
         </is>
       </c>
       <c r="D698" t="n">
-        <v>83873</v>
+        <v>83133</v>
       </c>
       <c r="E698" t="inlineStr">
         <is>
-          <t>crispy crunchy  chicken</t>
+          <t>stove top  bbq  beef or pork ribs</t>
         </is>
       </c>
     </row>
@@ -19802,11 +19802,11 @@
         </is>
       </c>
       <c r="D775" t="n">
-        <v>44123</v>
+        <v>59952</v>
       </c>
       <c r="E775" t="inlineStr">
         <is>
-          <t>george s at the cove  black bean soup</t>
+          <t>global gourmet  taco casserole</t>
         </is>
       </c>
     </row>
@@ -19827,11 +19827,11 @@
         </is>
       </c>
       <c r="D776" t="n">
-        <v>59952</v>
+        <v>44123</v>
       </c>
       <c r="E776" t="inlineStr">
         <is>
-          <t>global gourmet  taco casserole</t>
+          <t>george s at the cove  black bean soup</t>
         </is>
       </c>
     </row>
@@ -22252,11 +22252,11 @@
         </is>
       </c>
       <c r="D873" t="n">
-        <v>8559</v>
+        <v>38276</v>
       </c>
       <c r="E873" t="inlineStr">
         <is>
-          <t>chinese  chop suey</t>
+          <t>now and later  vegetarian empanadas</t>
         </is>
       </c>
     </row>
@@ -22302,11 +22302,11 @@
         </is>
       </c>
       <c r="D875" t="n">
-        <v>64045</v>
+        <v>67888</v>
       </c>
       <c r="E875" t="inlineStr">
         <is>
-          <t>some like it hot</t>
+          <t>backyard style  barbecued ribs</t>
         </is>
       </c>
     </row>
@@ -22327,11 +22327,11 @@
         </is>
       </c>
       <c r="D876" t="n">
-        <v>67888</v>
+        <v>64045</v>
       </c>
       <c r="E876" t="inlineStr">
         <is>
-          <t>backyard style  barbecued ribs</t>
+          <t>some like it hot</t>
         </is>
       </c>
     </row>
@@ -22652,11 +22652,11 @@
         </is>
       </c>
       <c r="D889" t="n">
-        <v>35653</v>
+        <v>63793</v>
       </c>
       <c r="E889" t="inlineStr">
         <is>
-          <t>make it your way  shortcakes</t>
+          <t>tide me over   indian chaat  simple veggie salad</t>
         </is>
       </c>
     </row>
@@ -22677,11 +22677,11 @@
         </is>
       </c>
       <c r="D890" t="n">
-        <v>63793</v>
+        <v>35653</v>
       </c>
       <c r="E890" t="inlineStr">
         <is>
-          <t>tide me over   indian chaat  simple veggie salad</t>
+          <t>make it your way  shortcakes</t>
         </is>
       </c>
     </row>
@@ -22702,11 +22702,11 @@
         </is>
       </c>
       <c r="D891" t="n">
-        <v>84797</v>
+        <v>108804</v>
       </c>
       <c r="E891" t="inlineStr">
         <is>
-          <t>love is in the air  beef fondue   sauces</t>
+          <t>put down your fork   tuna and bean salad</t>
         </is>
       </c>
     </row>
@@ -22827,11 +22827,11 @@
         </is>
       </c>
       <c r="D896" t="n">
-        <v>54100</v>
+        <v>90921</v>
       </c>
       <c r="E896" t="inlineStr">
         <is>
-          <t>grilled  venison burgers</t>
+          <t>i stole the idea from mirj  sesame noodles</t>
         </is>
       </c>
     </row>
@@ -22902,11 +22902,11 @@
         </is>
       </c>
       <c r="D899" t="n">
-        <v>32169</v>
+        <v>33606</v>
       </c>
       <c r="E899" t="inlineStr">
         <is>
-          <t>make that chicken dance  salsa pasta</t>
+          <t>italian sandwich  pasta salad</t>
         </is>
       </c>
     </row>
@@ -22927,11 +22927,11 @@
         </is>
       </c>
       <c r="D900" t="n">
-        <v>25775</v>
+        <v>32169</v>
       </c>
       <c r="E900" t="inlineStr">
         <is>
-          <t>how i got my family to eat spinach  spinach casserole</t>
+          <t>make that chicken dance  salsa pasta</t>
         </is>
       </c>
     </row>
@@ -22952,11 +22952,11 @@
         </is>
       </c>
       <c r="D901" t="n">
-        <v>84797</v>
+        <v>64302</v>
       </c>
       <c r="E901" t="inlineStr">
         <is>
-          <t>love is in the air  beef fondue   sauces</t>
+          <t>red  macaroni salad</t>
         </is>
       </c>
     </row>
@@ -23502,11 +23502,11 @@
         </is>
       </c>
       <c r="D923" t="n">
-        <v>58224</v>
+        <v>42570</v>
       </c>
       <c r="E923" t="inlineStr">
         <is>
-          <t>immoral  sandwich filling  loose meat</t>
+          <t>pick me up  party chicken kabobs</t>
         </is>
       </c>
     </row>
@@ -23527,11 +23527,11 @@
         </is>
       </c>
       <c r="D924" t="n">
-        <v>42570</v>
+        <v>58224</v>
       </c>
       <c r="E924" t="inlineStr">
         <is>
-          <t>pick me up  party chicken kabobs</t>
+          <t>immoral  sandwich filling  loose meat</t>
         </is>
       </c>
     </row>
@@ -26452,11 +26452,11 @@
         </is>
       </c>
       <c r="D1041" t="n">
-        <v>100870</v>
+        <v>25775</v>
       </c>
       <c r="E1041" t="inlineStr">
         <is>
-          <t>leftovers  spaghetti sauce</t>
+          <t>how i got my family to eat spinach  spinach casserole</t>
         </is>
       </c>
     </row>
@@ -26677,11 +26677,11 @@
         </is>
       </c>
       <c r="D1050" t="n">
-        <v>47366</v>
+        <v>25775</v>
       </c>
       <c r="E1050" t="inlineStr">
         <is>
-          <t>forgotten  minestrone</t>
+          <t>how i got my family to eat spinach  spinach casserole</t>
         </is>
       </c>
     </row>
@@ -26702,11 +26702,11 @@
         </is>
       </c>
       <c r="D1051" t="n">
-        <v>35595</v>
+        <v>47366</v>
       </c>
       <c r="E1051" t="inlineStr">
         <is>
-          <t>pour over anything  mushroom gravy</t>
+          <t>forgotten  minestrone</t>
         </is>
       </c>
     </row>
@@ -27527,11 +27527,11 @@
         </is>
       </c>
       <c r="D1084" t="n">
-        <v>95926</v>
+        <v>63793</v>
       </c>
       <c r="E1084" t="inlineStr">
         <is>
-          <t>say what   banana sandwich</t>
+          <t>tide me over   indian chaat  simple veggie salad</t>
         </is>
       </c>
     </row>
@@ -27552,11 +27552,11 @@
         </is>
       </c>
       <c r="D1085" t="n">
-        <v>63793</v>
+        <v>95926</v>
       </c>
       <c r="E1085" t="inlineStr">
         <is>
-          <t>tide me over   indian chaat  simple veggie salad</t>
+          <t>say what   banana sandwich</t>
         </is>
       </c>
     </row>
@@ -27602,11 +27602,11 @@
         </is>
       </c>
       <c r="D1087" t="n">
-        <v>35173</v>
+        <v>63793</v>
       </c>
       <c r="E1087" t="inlineStr">
         <is>
-          <t>italian  gut busters</t>
+          <t>tide me over   indian chaat  simple veggie salad</t>
         </is>
       </c>
     </row>
@@ -27627,11 +27627,11 @@
         </is>
       </c>
       <c r="D1088" t="n">
-        <v>39959</v>
+        <v>87098</v>
       </c>
       <c r="E1088" t="inlineStr">
         <is>
-          <t>calm your nerves  tonic</t>
+          <t>homemade  vegetable soup from a can</t>
         </is>
       </c>
     </row>
@@ -27652,11 +27652,11 @@
         </is>
       </c>
       <c r="D1089" t="n">
-        <v>95926</v>
+        <v>35173</v>
       </c>
       <c r="E1089" t="inlineStr">
         <is>
-          <t>say what   banana sandwich</t>
+          <t>italian  gut busters</t>
         </is>
       </c>
     </row>
@@ -27677,11 +27677,11 @@
         </is>
       </c>
       <c r="D1090" t="n">
-        <v>87098</v>
+        <v>39959</v>
       </c>
       <c r="E1090" t="inlineStr">
         <is>
-          <t>homemade  vegetable soup from a can</t>
+          <t>calm your nerves  tonic</t>
         </is>
       </c>
     </row>
@@ -27702,11 +27702,11 @@
         </is>
       </c>
       <c r="D1091" t="n">
-        <v>63793</v>
+        <v>95926</v>
       </c>
       <c r="E1091" t="inlineStr">
         <is>
-          <t>tide me over   indian chaat  simple veggie salad</t>
+          <t>say what   banana sandwich</t>
         </is>
       </c>
     </row>
@@ -27877,11 +27877,11 @@
         </is>
       </c>
       <c r="D1098" t="n">
-        <v>107517</v>
+        <v>87098</v>
       </c>
       <c r="E1098" t="inlineStr">
         <is>
-          <t>boat house  collard greens</t>
+          <t>homemade  vegetable soup from a can</t>
         </is>
       </c>
     </row>
@@ -27902,11 +27902,11 @@
         </is>
       </c>
       <c r="D1099" t="n">
-        <v>87098</v>
+        <v>107517</v>
       </c>
       <c r="E1099" t="inlineStr">
         <is>
-          <t>homemade  vegetable soup from a can</t>
+          <t>boat house  collard greens</t>
         </is>
       </c>
     </row>
@@ -28052,11 +28052,11 @@
         </is>
       </c>
       <c r="D1105" t="n">
-        <v>25274</v>
+        <v>30131</v>
       </c>
       <c r="E1105" t="inlineStr">
         <is>
-          <t>aww  marinated olives</t>
+          <t>momma s special  marinade</t>
         </is>
       </c>
     </row>
@@ -28077,11 +28077,11 @@
         </is>
       </c>
       <c r="D1106" t="n">
-        <v>30131</v>
+        <v>93249</v>
       </c>
       <c r="E1106" t="inlineStr">
         <is>
-          <t>momma s special  marinade</t>
+          <t>grilled  ranch bread</t>
         </is>
       </c>
     </row>
@@ -28752,11 +28752,11 @@
         </is>
       </c>
       <c r="D1133" t="n">
-        <v>111875</v>
+        <v>112959</v>
       </c>
       <c r="E1133" t="inlineStr">
         <is>
-          <t>the elvis  smoothie</t>
+          <t>sour cream  avocado dip  vegan</t>
         </is>
       </c>
     </row>
@@ -28777,11 +28777,11 @@
         </is>
       </c>
       <c r="D1134" t="n">
-        <v>112959</v>
+        <v>111875</v>
       </c>
       <c r="E1134" t="inlineStr">
         <is>
-          <t>sour cream  avocado dip  vegan</t>
+          <t>the elvis  smoothie</t>
         </is>
       </c>
     </row>
@@ -28802,11 +28802,11 @@
         </is>
       </c>
       <c r="D1135" t="n">
-        <v>25274</v>
+        <v>23850</v>
       </c>
       <c r="E1135" t="inlineStr">
         <is>
-          <t>aww  marinated olives</t>
+          <t>cream  of cauliflower soup  vegan</t>
         </is>
       </c>
     </row>
@@ -28927,11 +28927,11 @@
         </is>
       </c>
       <c r="D1140" t="n">
-        <v>25274</v>
+        <v>25775</v>
       </c>
       <c r="E1140" t="inlineStr">
         <is>
-          <t>aww  marinated olives</t>
+          <t>how i got my family to eat spinach  spinach casserole</t>
         </is>
       </c>
     </row>
@@ -28952,11 +28952,11 @@
         </is>
       </c>
       <c r="D1141" t="n">
-        <v>25775</v>
+        <v>24701</v>
       </c>
       <c r="E1141" t="inlineStr">
         <is>
-          <t>how i got my family to eat spinach  spinach casserole</t>
+          <t>cream  of spinach soup  vegan</t>
         </is>
       </c>
     </row>
@@ -29152,11 +29152,11 @@
         </is>
       </c>
       <c r="D1149" t="n">
-        <v>30300</v>
+        <v>25775</v>
       </c>
       <c r="E1149" t="inlineStr">
         <is>
-          <t>munch without guilt  tomatoes</t>
+          <t>how i got my family to eat spinach  spinach casserole</t>
         </is>
       </c>
     </row>
@@ -29177,11 +29177,11 @@
         </is>
       </c>
       <c r="D1150" t="n">
-        <v>42522</v>
+        <v>30300</v>
       </c>
       <c r="E1150" t="inlineStr">
         <is>
-          <t>the man s  taco dip</t>
+          <t>munch without guilt  tomatoes</t>
         </is>
       </c>
     </row>
@@ -29202,11 +29202,11 @@
         </is>
       </c>
       <c r="D1151" t="n">
-        <v>25775</v>
+        <v>42522</v>
       </c>
       <c r="E1151" t="inlineStr">
         <is>
-          <t>how i got my family to eat spinach  spinach casserole</t>
+          <t>the man s  taco dip</t>
         </is>
       </c>
     </row>
@@ -29752,11 +29752,11 @@
         </is>
       </c>
       <c r="D1173" t="n">
-        <v>64302</v>
+        <v>83133</v>
       </c>
       <c r="E1173" t="inlineStr">
         <is>
-          <t>red  macaroni salad</t>
+          <t>stove top  bbq  beef or pork ribs</t>
         </is>
       </c>
     </row>
@@ -29777,11 +29777,11 @@
         </is>
       </c>
       <c r="D1174" t="n">
-        <v>83133</v>
+        <v>64302</v>
       </c>
       <c r="E1174" t="inlineStr">
         <is>
-          <t>stove top  bbq  beef or pork ribs</t>
+          <t>red  macaroni salad</t>
         </is>
       </c>
     </row>
@@ -30177,11 +30177,11 @@
         </is>
       </c>
       <c r="D1190" t="n">
-        <v>60219</v>
+        <v>87098</v>
       </c>
       <c r="E1190" t="inlineStr">
         <is>
-          <t>mexican pasta</t>
+          <t>homemade  vegetable soup from a can</t>
         </is>
       </c>
     </row>
@@ -30202,11 +30202,11 @@
         </is>
       </c>
       <c r="D1191" t="n">
-        <v>32169</v>
+        <v>25775</v>
       </c>
       <c r="E1191" t="inlineStr">
         <is>
-          <t>make that chicken dance  salsa pasta</t>
+          <t>how i got my family to eat spinach  spinach casserole</t>
         </is>
       </c>
     </row>
@@ -31302,11 +31302,11 @@
         </is>
       </c>
       <c r="D1235" t="n">
-        <v>32169</v>
+        <v>59952</v>
       </c>
       <c r="E1235" t="inlineStr">
         <is>
-          <t>make that chicken dance  salsa pasta</t>
+          <t>global gourmet  taco casserole</t>
         </is>
       </c>
     </row>
@@ -31327,11 +31327,11 @@
         </is>
       </c>
       <c r="D1236" t="n">
-        <v>59534</v>
+        <v>32169</v>
       </c>
       <c r="E1236" t="inlineStr">
         <is>
-          <t>twisted american chop suey</t>
+          <t>make that chicken dance  salsa pasta</t>
         </is>
       </c>
     </row>
@@ -31377,11 +31377,11 @@
         </is>
       </c>
       <c r="D1238" t="n">
-        <v>25775</v>
+        <v>59952</v>
       </c>
       <c r="E1238" t="inlineStr">
         <is>
-          <t>how i got my family to eat spinach  spinach casserole</t>
+          <t>global gourmet  taco casserole</t>
         </is>
       </c>
     </row>
@@ -31402,11 +31402,11 @@
         </is>
       </c>
       <c r="D1239" t="n">
-        <v>32169</v>
+        <v>25775</v>
       </c>
       <c r="E1239" t="inlineStr">
         <is>
-          <t>make that chicken dance  salsa pasta</t>
+          <t>how i got my family to eat spinach  spinach casserole</t>
         </is>
       </c>
     </row>
@@ -31427,11 +31427,11 @@
         </is>
       </c>
       <c r="D1240" t="n">
-        <v>59952</v>
+        <v>32169</v>
       </c>
       <c r="E1240" t="inlineStr">
         <is>
-          <t>global gourmet  taco casserole</t>
+          <t>make that chicken dance  salsa pasta</t>
         </is>
       </c>
     </row>
@@ -31577,11 +31577,11 @@
         </is>
       </c>
       <c r="D1246" t="n">
-        <v>32169</v>
+        <v>59952</v>
       </c>
       <c r="E1246" t="inlineStr">
         <is>
-          <t>make that chicken dance  salsa pasta</t>
+          <t>global gourmet  taco casserole</t>
         </is>
       </c>
     </row>
@@ -32477,11 +32477,11 @@
         </is>
       </c>
       <c r="D1282" t="n">
-        <v>59534</v>
+        <v>23850</v>
       </c>
       <c r="E1282" t="inlineStr">
         <is>
-          <t>twisted american chop suey</t>
+          <t>cream  of cauliflower soup  vegan</t>
         </is>
       </c>
     </row>
@@ -32502,11 +32502,11 @@
         </is>
       </c>
       <c r="D1283" t="n">
-        <v>23850</v>
+        <v>137739</v>
       </c>
       <c r="E1283" t="inlineStr">
         <is>
-          <t>cream  of cauliflower soup  vegan</t>
+          <t>arriba   baked winter squash mexican style</t>
         </is>
       </c>
     </row>
@@ -32527,11 +32527,11 @@
         </is>
       </c>
       <c r="D1284" t="n">
-        <v>137739</v>
+        <v>59534</v>
       </c>
       <c r="E1284" t="inlineStr">
         <is>
-          <t>arriba   baked winter squash mexican style</t>
+          <t>twisted american chop suey</t>
         </is>
       </c>
     </row>
@@ -32652,11 +32652,11 @@
         </is>
       </c>
       <c r="D1289" t="n">
-        <v>49262</v>
+        <v>137739</v>
       </c>
       <c r="E1289" t="inlineStr">
         <is>
-          <t>easiest ever  hollandaise sauce</t>
+          <t>arriba   baked winter squash mexican style</t>
         </is>
       </c>
     </row>
@@ -32677,11 +32677,11 @@
         </is>
       </c>
       <c r="D1290" t="n">
-        <v>23850</v>
+        <v>87098</v>
       </c>
       <c r="E1290" t="inlineStr">
         <is>
-          <t>cream  of cauliflower soup  vegan</t>
+          <t>homemade  vegetable soup from a can</t>
         </is>
       </c>
     </row>
@@ -32702,11 +32702,11 @@
         </is>
       </c>
       <c r="D1291" t="n">
-        <v>44123</v>
+        <v>23850</v>
       </c>
       <c r="E1291" t="inlineStr">
         <is>
-          <t>george s at the cove  black bean soup</t>
+          <t>cream  of cauliflower soup  vegan</t>
         </is>
       </c>
     </row>
@@ -32752,11 +32752,11 @@
         </is>
       </c>
       <c r="D1293" t="n">
-        <v>83873</v>
+        <v>137739</v>
       </c>
       <c r="E1293" t="inlineStr">
         <is>
-          <t>crispy crunchy  chicken</t>
+          <t>arriba   baked winter squash mexican style</t>
         </is>
       </c>
     </row>
@@ -32777,11 +32777,11 @@
         </is>
       </c>
       <c r="D1294" t="n">
-        <v>137739</v>
+        <v>41756</v>
       </c>
       <c r="E1294" t="inlineStr">
         <is>
-          <t>arriba   baked winter squash mexican style</t>
+          <t>souper  easy sweet   sour meatballs</t>
         </is>
       </c>
     </row>
@@ -32802,11 +32802,11 @@
         </is>
       </c>
       <c r="D1295" t="n">
-        <v>41756</v>
+        <v>83873</v>
       </c>
       <c r="E1295" t="inlineStr">
         <is>
-          <t>souper  easy sweet   sour meatballs</t>
+          <t>crispy crunchy  chicken</t>
         </is>
       </c>
     </row>
@@ -32852,11 +32852,11 @@
         </is>
       </c>
       <c r="D1297" t="n">
-        <v>109439</v>
+        <v>137739</v>
       </c>
       <c r="E1297" t="inlineStr">
         <is>
-          <t>berry  good sandwich spread</t>
+          <t>arriba   baked winter squash mexican style</t>
         </is>
       </c>
     </row>
@@ -32902,11 +32902,11 @@
         </is>
       </c>
       <c r="D1299" t="n">
-        <v>137739</v>
+        <v>109439</v>
       </c>
       <c r="E1299" t="inlineStr">
         <is>
-          <t>arriba   baked winter squash mexican style</t>
+          <t>berry  good sandwich spread</t>
         </is>
       </c>
     </row>
@@ -32952,11 +32952,11 @@
         </is>
       </c>
       <c r="D1301" t="n">
-        <v>48156</v>
+        <v>93959</v>
       </c>
       <c r="E1301" t="inlineStr">
         <is>
-          <t>emotional balance  spice mixture</t>
+          <t>i yam what i yam two  muffins</t>
         </is>
       </c>
     </row>
@@ -33727,11 +33727,11 @@
         </is>
       </c>
       <c r="D1332" t="n">
-        <v>107229</v>
+        <v>83873</v>
       </c>
       <c r="E1332" t="inlineStr">
         <is>
-          <t>open sesame  noodles</t>
+          <t>crispy crunchy  chicken</t>
         </is>
       </c>
     </row>
@@ -33752,11 +33752,11 @@
         </is>
       </c>
       <c r="D1333" t="n">
-        <v>83873</v>
+        <v>107229</v>
       </c>
       <c r="E1333" t="inlineStr">
         <is>
-          <t>crispy crunchy  chicken</t>
+          <t>open sesame  noodles</t>
         </is>
       </c>
     </row>
@@ -33777,11 +33777,11 @@
         </is>
       </c>
       <c r="D1334" t="n">
-        <v>54272</v>
+        <v>63986</v>
       </c>
       <c r="E1334" t="inlineStr">
         <is>
-          <t>fool the meat eaters  chili</t>
+          <t>chicken lickin  good  pork chops</t>
         </is>
       </c>
     </row>
@@ -33802,11 +33802,11 @@
         </is>
       </c>
       <c r="D1335" t="n">
-        <v>63986</v>
+        <v>98930</v>
       </c>
       <c r="E1335" t="inlineStr">
         <is>
-          <t>chicken lickin  good  pork chops</t>
+          <t>steamed  chicken cutlets in packages</t>
         </is>
       </c>
     </row>
@@ -33827,11 +33827,11 @@
         </is>
       </c>
       <c r="D1336" t="n">
-        <v>98930</v>
+        <v>54272</v>
       </c>
       <c r="E1336" t="inlineStr">
         <is>
-          <t>steamed  chicken cutlets in packages</t>
+          <t>fool the meat eaters  chili</t>
         </is>
       </c>
     </row>
@@ -33852,11 +33852,11 @@
         </is>
       </c>
       <c r="D1337" t="n">
-        <v>42570</v>
+        <v>83873</v>
       </c>
       <c r="E1337" t="inlineStr">
         <is>
-          <t>pick me up  party chicken kabobs</t>
+          <t>crispy crunchy  chicken</t>
         </is>
       </c>
     </row>
@@ -33877,11 +33877,11 @@
         </is>
       </c>
       <c r="D1338" t="n">
-        <v>83873</v>
+        <v>42570</v>
       </c>
       <c r="E1338" t="inlineStr">
         <is>
-          <t>crispy crunchy  chicken</t>
+          <t>pick me up  party chicken kabobs</t>
         </is>
       </c>
     </row>
@@ -33952,11 +33952,11 @@
         </is>
       </c>
       <c r="D1341" t="n">
-        <v>44123</v>
+        <v>32169</v>
       </c>
       <c r="E1341" t="inlineStr">
         <is>
-          <t>george s at the cove  black bean soup</t>
+          <t>make that chicken dance  salsa pasta</t>
         </is>
       </c>
     </row>
@@ -34202,11 +34202,11 @@
         </is>
       </c>
       <c r="D1351" t="n">
-        <v>48156</v>
+        <v>32169</v>
       </c>
       <c r="E1351" t="inlineStr">
         <is>
-          <t>emotional balance  spice mixture</t>
+          <t>make that chicken dance  salsa pasta</t>
         </is>
       </c>
     </row>
@@ -34752,11 +34752,11 @@
         </is>
       </c>
       <c r="D1373" t="n">
-        <v>53402</v>
+        <v>32169</v>
       </c>
       <c r="E1373" t="inlineStr">
         <is>
-          <t>killer  lasagna</t>
+          <t>make that chicken dance  salsa pasta</t>
         </is>
       </c>
     </row>
@@ -34777,11 +34777,11 @@
         </is>
       </c>
       <c r="D1374" t="n">
-        <v>32169</v>
+        <v>53402</v>
       </c>
       <c r="E1374" t="inlineStr">
         <is>
-          <t>make that chicken dance  salsa pasta</t>
+          <t>killer  lasagna</t>
         </is>
       </c>
     </row>
@@ -34802,11 +34802,11 @@
         </is>
       </c>
       <c r="D1375" t="n">
-        <v>47366</v>
+        <v>94710</v>
       </c>
       <c r="E1375" t="inlineStr">
         <is>
-          <t>forgotten  minestrone</t>
+          <t>italian  fries</t>
         </is>
       </c>
     </row>
@@ -34827,11 +34827,11 @@
         </is>
       </c>
       <c r="D1376" t="n">
-        <v>94710</v>
+        <v>47366</v>
       </c>
       <c r="E1376" t="inlineStr">
         <is>
-          <t>italian  fries</t>
+          <t>forgotten  minestrone</t>
         </is>
       </c>
     </row>
@@ -37527,11 +37527,11 @@
         </is>
       </c>
       <c r="D1484" t="n">
-        <v>95926</v>
+        <v>30300</v>
       </c>
       <c r="E1484" t="inlineStr">
         <is>
-          <t>say what   banana sandwich</t>
+          <t>munch without guilt  tomatoes</t>
         </is>
       </c>
     </row>
@@ -37577,11 +37577,11 @@
         </is>
       </c>
       <c r="D1486" t="n">
-        <v>30300</v>
+        <v>95926</v>
       </c>
       <c r="E1486" t="inlineStr">
         <is>
-          <t>munch without guilt  tomatoes</t>
+          <t>say what   banana sandwich</t>
         </is>
       </c>
     </row>
@@ -37602,11 +37602,11 @@
         </is>
       </c>
       <c r="D1487" t="n">
-        <v>83062</v>
+        <v>30300</v>
       </c>
       <c r="E1487" t="inlineStr">
         <is>
-          <t>spicy  banana bread</t>
+          <t>munch without guilt  tomatoes</t>
         </is>
       </c>
     </row>
@@ -37627,11 +37627,11 @@
         </is>
       </c>
       <c r="D1488" t="n">
-        <v>30300</v>
+        <v>83062</v>
       </c>
       <c r="E1488" t="inlineStr">
         <is>
-          <t>munch without guilt  tomatoes</t>
+          <t>spicy  banana bread</t>
         </is>
       </c>
     </row>
@@ -37702,11 +37702,11 @@
         </is>
       </c>
       <c r="D1491" t="n">
-        <v>26995</v>
+        <v>75452</v>
       </c>
       <c r="E1491" t="inlineStr">
         <is>
-          <t>keep it going  german friendship cake</t>
+          <t>beat this  banana bread</t>
         </is>
       </c>
     </row>
@@ -37727,11 +37727,11 @@
         </is>
       </c>
       <c r="D1492" t="n">
-        <v>107699</v>
+        <v>30300</v>
       </c>
       <c r="E1492" t="inlineStr">
         <is>
-          <t>deep fried dessert thingys</t>
+          <t>munch without guilt  tomatoes</t>
         </is>
       </c>
     </row>
@@ -37752,11 +37752,11 @@
         </is>
       </c>
       <c r="D1493" t="n">
-        <v>30300</v>
+        <v>107699</v>
       </c>
       <c r="E1493" t="inlineStr">
         <is>
-          <t>munch without guilt  tomatoes</t>
+          <t>deep fried dessert thingys</t>
         </is>
       </c>
     </row>
@@ -38502,11 +38502,11 @@
         </is>
       </c>
       <c r="D1523" t="n">
-        <v>112140</v>
+        <v>59534</v>
       </c>
       <c r="E1523" t="inlineStr">
         <is>
-          <t>all in the kitchen  chili</t>
+          <t>twisted american chop suey</t>
         </is>
       </c>
     </row>
@@ -38527,11 +38527,11 @@
         </is>
       </c>
       <c r="D1524" t="n">
-        <v>59534</v>
+        <v>41756</v>
       </c>
       <c r="E1524" t="inlineStr">
         <is>
-          <t>twisted american chop suey</t>
+          <t>souper  easy sweet   sour meatballs</t>
         </is>
       </c>
     </row>
@@ -38552,11 +38552,11 @@
         </is>
       </c>
       <c r="D1525" t="n">
-        <v>41756</v>
+        <v>112140</v>
       </c>
       <c r="E1525" t="inlineStr">
         <is>
-          <t>souper  easy sweet   sour meatballs</t>
+          <t>all in the kitchen  chili</t>
         </is>
       </c>
     </row>
@@ -38827,11 +38827,11 @@
         </is>
       </c>
       <c r="D1536" t="n">
-        <v>95926</v>
+        <v>67664</v>
       </c>
       <c r="E1536" t="inlineStr">
         <is>
-          <t>say what   banana sandwich</t>
+          <t>healthy for them  yogurt popsicles</t>
         </is>
       </c>
     </row>
@@ -40102,11 +40102,11 @@
         </is>
       </c>
       <c r="D1587" t="n">
-        <v>42570</v>
+        <v>112959</v>
       </c>
       <c r="E1587" t="inlineStr">
         <is>
-          <t>pick me up  party chicken kabobs</t>
+          <t>sour cream  avocado dip  vegan</t>
         </is>
       </c>
     </row>
@@ -40127,11 +40127,11 @@
         </is>
       </c>
       <c r="D1588" t="n">
-        <v>112959</v>
+        <v>24701</v>
       </c>
       <c r="E1588" t="inlineStr">
         <is>
-          <t>sour cream  avocado dip  vegan</t>
+          <t>cream  of spinach soup  vegan</t>
         </is>
       </c>
     </row>
@@ -40152,11 +40152,11 @@
         </is>
       </c>
       <c r="D1589" t="n">
-        <v>54100</v>
+        <v>31490</v>
       </c>
       <c r="E1589" t="inlineStr">
         <is>
-          <t>grilled  venison burgers</t>
+          <t>a bit different  breakfast pizza</t>
         </is>
       </c>
     </row>
@@ -40177,11 +40177,11 @@
         </is>
       </c>
       <c r="D1590" t="n">
-        <v>54272</v>
+        <v>23850</v>
       </c>
       <c r="E1590" t="inlineStr">
         <is>
-          <t>fool the meat eaters  chili</t>
+          <t>cream  of cauliflower soup  vegan</t>
         </is>
       </c>
     </row>
@@ -40202,11 +40202,11 @@
         </is>
       </c>
       <c r="D1591" t="n">
-        <v>58224</v>
+        <v>42570</v>
       </c>
       <c r="E1591" t="inlineStr">
         <is>
-          <t>immoral  sandwich filling  loose meat</t>
+          <t>pick me up  party chicken kabobs</t>
         </is>
       </c>
     </row>
@@ -41627,11 +41627,11 @@
         </is>
       </c>
       <c r="D1648" t="n">
-        <v>31490</v>
+        <v>25775</v>
       </c>
       <c r="E1648" t="inlineStr">
         <is>
-          <t>a bit different  breakfast pizza</t>
+          <t>how i got my family to eat spinach  spinach casserole</t>
         </is>
       </c>
     </row>
@@ -41652,11 +41652,11 @@
         </is>
       </c>
       <c r="D1649" t="n">
-        <v>108414</v>
+        <v>31490</v>
       </c>
       <c r="E1649" t="inlineStr">
         <is>
-          <t>jiffy  roasted corn and jalapeno cornbread</t>
+          <t>a bit different  breakfast pizza</t>
         </is>
       </c>
     </row>
@@ -41677,11 +41677,11 @@
         </is>
       </c>
       <c r="D1650" t="n">
-        <v>42522</v>
+        <v>108414</v>
       </c>
       <c r="E1650" t="inlineStr">
         <is>
-          <t>the man s  taco dip</t>
+          <t>jiffy  roasted corn and jalapeno cornbread</t>
         </is>
       </c>
     </row>
@@ -41702,11 +41702,11 @@
         </is>
       </c>
       <c r="D1651" t="n">
-        <v>93958</v>
+        <v>42522</v>
       </c>
       <c r="E1651" t="inlineStr">
         <is>
-          <t>i yam what i yam  muffins</t>
+          <t>the man s  taco dip</t>
         </is>
       </c>
     </row>
@@ -42002,11 +42002,11 @@
         </is>
       </c>
       <c r="D1663" t="n">
-        <v>38798</v>
+        <v>52804</v>
       </c>
       <c r="E1663" t="inlineStr">
         <is>
-          <t>i can t believe it s spinach</t>
+          <t>jiffy  extra moist carrot cake</t>
         </is>
       </c>
     </row>
@@ -42027,11 +42027,11 @@
         </is>
       </c>
       <c r="D1664" t="n">
-        <v>52804</v>
+        <v>26995</v>
       </c>
       <c r="E1664" t="inlineStr">
         <is>
-          <t>jiffy  extra moist carrot cake</t>
+          <t>keep it going  german friendship cake</t>
         </is>
       </c>
     </row>
@@ -42077,11 +42077,11 @@
         </is>
       </c>
       <c r="D1666" t="n">
-        <v>26995</v>
+        <v>27087</v>
       </c>
       <c r="E1666" t="inlineStr">
         <is>
-          <t>keep it going  german friendship cake</t>
+          <t>get the sensation  brownies</t>
         </is>
       </c>
     </row>
@@ -42302,11 +42302,11 @@
         </is>
       </c>
       <c r="D1675" t="n">
-        <v>93959</v>
+        <v>26835</v>
       </c>
       <c r="E1675" t="inlineStr">
         <is>
-          <t>i yam what i yam two  muffins</t>
+          <t>one bowl  perfect pound cake</t>
         </is>
       </c>
     </row>
@@ -42327,11 +42327,11 @@
         </is>
       </c>
       <c r="D1676" t="n">
-        <v>26835</v>
+        <v>75452</v>
       </c>
       <c r="E1676" t="inlineStr">
         <is>
-          <t>one bowl  perfect pound cake</t>
+          <t>beat this  banana bread</t>
         </is>
       </c>
     </row>
@@ -42627,11 +42627,11 @@
         </is>
       </c>
       <c r="D1688" t="n">
-        <v>26835</v>
+        <v>30300</v>
       </c>
       <c r="E1688" t="inlineStr">
         <is>
-          <t>one bowl  perfect pound cake</t>
+          <t>munch without guilt  tomatoes</t>
         </is>
       </c>
     </row>
@@ -42652,11 +42652,11 @@
         </is>
       </c>
       <c r="D1689" t="n">
-        <v>30300</v>
+        <v>26835</v>
       </c>
       <c r="E1689" t="inlineStr">
         <is>
-          <t>munch without guilt  tomatoes</t>
+          <t>one bowl  perfect pound cake</t>
         </is>
       </c>
     </row>
@@ -42677,11 +42677,11 @@
         </is>
       </c>
       <c r="D1690" t="n">
-        <v>71635</v>
+        <v>25775</v>
       </c>
       <c r="E1690" t="inlineStr">
         <is>
-          <t>no bake  cookie crumble cheesecake</t>
+          <t>how i got my family to eat spinach  spinach casserole</t>
         </is>
       </c>
     </row>
@@ -42702,11 +42702,11 @@
         </is>
       </c>
       <c r="D1691" t="n">
-        <v>35653</v>
+        <v>71635</v>
       </c>
       <c r="E1691" t="inlineStr">
         <is>
-          <t>make it your way  shortcakes</t>
+          <t>no bake  cookie crumble cheesecake</t>
         </is>
       </c>
     </row>
@@ -42752,11 +42752,11 @@
         </is>
       </c>
       <c r="D1693" t="n">
-        <v>38798</v>
+        <v>25775</v>
       </c>
       <c r="E1693" t="inlineStr">
         <is>
-          <t>i can t believe it s spinach</t>
+          <t>how i got my family to eat spinach  spinach casserole</t>
         </is>
       </c>
     </row>
@@ -42802,11 +42802,11 @@
         </is>
       </c>
       <c r="D1695" t="n">
-        <v>25775</v>
+        <v>26995</v>
       </c>
       <c r="E1695" t="inlineStr">
         <is>
-          <t>how i got my family to eat spinach  spinach casserole</t>
+          <t>keep it going  german friendship cake</t>
         </is>
       </c>
     </row>
@@ -42827,11 +42827,11 @@
         </is>
       </c>
       <c r="D1696" t="n">
-        <v>26995</v>
+        <v>27087</v>
       </c>
       <c r="E1696" t="inlineStr">
         <is>
-          <t>keep it going  german friendship cake</t>
+          <t>get the sensation  brownies</t>
         </is>
       </c>
     </row>
@@ -42952,11 +42952,11 @@
         </is>
       </c>
       <c r="D1701" t="n">
-        <v>83133</v>
+        <v>30300</v>
       </c>
       <c r="E1701" t="inlineStr">
         <is>
-          <t>stove top  bbq  beef or pork ribs</t>
+          <t>munch without guilt  tomatoes</t>
         </is>
       </c>
     </row>
@@ -43752,11 +43752,11 @@
         </is>
       </c>
       <c r="D1733" t="n">
-        <v>25274</v>
+        <v>24701</v>
       </c>
       <c r="E1733" t="inlineStr">
         <is>
-          <t>aww  marinated olives</t>
+          <t>cream  of spinach soup  vegan</t>
         </is>
       </c>
     </row>
@@ -43777,11 +43777,11 @@
         </is>
       </c>
       <c r="D1734" t="n">
-        <v>54272</v>
+        <v>25274</v>
       </c>
       <c r="E1734" t="inlineStr">
         <is>
-          <t>fool the meat eaters  chili</t>
+          <t>aww  marinated olives</t>
         </is>
       </c>
     </row>
@@ -43802,11 +43802,11 @@
         </is>
       </c>
       <c r="D1735" t="n">
-        <v>81185</v>
+        <v>54272</v>
       </c>
       <c r="E1735" t="inlineStr">
         <is>
-          <t>mock a mole   low fat guacamole</t>
+          <t>fool the meat eaters  chili</t>
         </is>
       </c>
     </row>
@@ -43827,11 +43827,11 @@
         </is>
       </c>
       <c r="D1736" t="n">
-        <v>24701</v>
+        <v>81185</v>
       </c>
       <c r="E1736" t="inlineStr">
         <is>
-          <t>cream  of spinach soup  vegan</t>
+          <t>mock a mole   low fat guacamole</t>
         </is>
       </c>
     </row>
@@ -43902,11 +43902,11 @@
         </is>
       </c>
       <c r="D1739" t="n">
-        <v>54272</v>
+        <v>23850</v>
       </c>
       <c r="E1739" t="inlineStr">
         <is>
-          <t>fool the meat eaters  chili</t>
+          <t>cream  of cauliflower soup  vegan</t>
         </is>
       </c>
     </row>
@@ -43927,11 +43927,11 @@
         </is>
       </c>
       <c r="D1740" t="n">
-        <v>23850</v>
+        <v>54272</v>
       </c>
       <c r="E1740" t="inlineStr">
         <is>
-          <t>cream  of cauliflower soup  vegan</t>
+          <t>fool the meat eaters  chili</t>
         </is>
       </c>
     </row>
@@ -43952,11 +43952,11 @@
         </is>
       </c>
       <c r="D1741" t="n">
-        <v>84797</v>
+        <v>25775</v>
       </c>
       <c r="E1741" t="inlineStr">
         <is>
-          <t>love is in the air  beef fondue   sauces</t>
+          <t>how i got my family to eat spinach  spinach casserole</t>
         </is>
       </c>
     </row>
@@ -44027,11 +44027,11 @@
         </is>
       </c>
       <c r="D1744" t="n">
-        <v>43164</v>
+        <v>23850</v>
       </c>
       <c r="E1744" t="inlineStr">
         <is>
-          <t>mr  grant you took half veal prince orloff</t>
+          <t>cream  of cauliflower soup  vegan</t>
         </is>
       </c>
     </row>
@@ -44052,11 +44052,11 @@
         </is>
       </c>
       <c r="D1745" t="n">
-        <v>42522</v>
+        <v>43164</v>
       </c>
       <c r="E1745" t="inlineStr">
         <is>
-          <t>the man s  taco dip</t>
+          <t>mr  grant you took half veal prince orloff</t>
         </is>
       </c>
     </row>
@@ -44077,11 +44077,11 @@
         </is>
       </c>
       <c r="D1746" t="n">
-        <v>23850</v>
+        <v>42522</v>
       </c>
       <c r="E1746" t="inlineStr">
         <is>
-          <t>cream  of cauliflower soup  vegan</t>
+          <t>the man s  taco dip</t>
         </is>
       </c>
     </row>
@@ -44102,11 +44102,11 @@
         </is>
       </c>
       <c r="D1747" t="n">
-        <v>47366</v>
+        <v>25775</v>
       </c>
       <c r="E1747" t="inlineStr">
         <is>
-          <t>forgotten  minestrone</t>
+          <t>how i got my family to eat spinach  spinach casserole</t>
         </is>
       </c>
     </row>
@@ -44127,11 +44127,11 @@
         </is>
       </c>
       <c r="D1748" t="n">
-        <v>83133</v>
+        <v>47366</v>
       </c>
       <c r="E1748" t="inlineStr">
         <is>
-          <t>stove top  bbq  beef or pork ribs</t>
+          <t>forgotten  minestrone</t>
         </is>
       </c>
     </row>
@@ -44152,11 +44152,11 @@
         </is>
       </c>
       <c r="D1749" t="n">
-        <v>25775</v>
+        <v>83133</v>
       </c>
       <c r="E1749" t="inlineStr">
         <is>
-          <t>how i got my family to eat spinach  spinach casserole</t>
+          <t>stove top  bbq  beef or pork ribs</t>
         </is>
       </c>
     </row>
@@ -45077,11 +45077,11 @@
         </is>
       </c>
       <c r="D1786" t="n">
-        <v>42570</v>
+        <v>107699</v>
       </c>
       <c r="E1786" t="inlineStr">
         <is>
-          <t>pick me up  party chicken kabobs</t>
+          <t>deep fried dessert thingys</t>
         </is>
       </c>
     </row>
@@ -45102,11 +45102,11 @@
         </is>
       </c>
       <c r="D1787" t="n">
-        <v>35964</v>
+        <v>107699</v>
       </c>
       <c r="E1787" t="inlineStr">
         <is>
-          <t>rich  hot fudge cake</t>
+          <t>deep fried dessert thingys</t>
         </is>
       </c>
     </row>
@@ -45127,11 +45127,11 @@
         </is>
       </c>
       <c r="D1788" t="n">
-        <v>107699</v>
+        <v>35964</v>
       </c>
       <c r="E1788" t="inlineStr">
         <is>
-          <t>deep fried dessert thingys</t>
+          <t>rich  hot fudge cake</t>
         </is>
       </c>
     </row>
@@ -45252,11 +45252,11 @@
         </is>
       </c>
       <c r="D1793" t="n">
-        <v>62368</v>
+        <v>107699</v>
       </c>
       <c r="E1793" t="inlineStr">
         <is>
-          <t>the best  chocolate chip cheesecake ever</t>
+          <t>deep fried dessert thingys</t>
         </is>
       </c>
     </row>
@@ -45277,11 +45277,11 @@
         </is>
       </c>
       <c r="D1794" t="n">
-        <v>63793</v>
+        <v>62368</v>
       </c>
       <c r="E1794" t="inlineStr">
         <is>
-          <t>tide me over   indian chaat  simple veggie salad</t>
+          <t>the best  chocolate chip cheesecake ever</t>
         </is>
       </c>
     </row>
@@ -45302,11 +45302,11 @@
         </is>
       </c>
       <c r="D1795" t="n">
-        <v>22526</v>
+        <v>63793</v>
       </c>
       <c r="E1795" t="inlineStr">
         <is>
-          <t>land of nod  cinnamon buns</t>
+          <t>tide me over   indian chaat  simple veggie salad</t>
         </is>
       </c>
     </row>
@@ -45327,11 +45327,11 @@
         </is>
       </c>
       <c r="D1796" t="n">
-        <v>107699</v>
+        <v>22526</v>
       </c>
       <c r="E1796" t="inlineStr">
         <is>
-          <t>deep fried dessert thingys</t>
+          <t>land of nod  cinnamon buns</t>
         </is>
       </c>
     </row>
@@ -46352,11 +46352,11 @@
         </is>
       </c>
       <c r="D1837" t="n">
-        <v>52804</v>
+        <v>107699</v>
       </c>
       <c r="E1837" t="inlineStr">
         <is>
-          <t>jiffy  extra moist carrot cake</t>
+          <t>deep fried dessert thingys</t>
         </is>
       </c>
     </row>
@@ -46377,11 +46377,11 @@
         </is>
       </c>
       <c r="D1838" t="n">
-        <v>107699</v>
+        <v>52804</v>
       </c>
       <c r="E1838" t="inlineStr">
         <is>
-          <t>deep fried dessert thingys</t>
+          <t>jiffy  extra moist carrot cake</t>
         </is>
       </c>
     </row>
@@ -47277,11 +47277,11 @@
         </is>
       </c>
       <c r="D1874" t="n">
-        <v>35964</v>
+        <v>62368</v>
       </c>
       <c r="E1874" t="inlineStr">
         <is>
-          <t>rich  hot fudge cake</t>
+          <t>the best  chocolate chip cheesecake ever</t>
         </is>
       </c>
     </row>
@@ -47302,11 +47302,11 @@
         </is>
       </c>
       <c r="D1875" t="n">
-        <v>62368</v>
+        <v>38276</v>
       </c>
       <c r="E1875" t="inlineStr">
         <is>
-          <t>the best  chocolate chip cheesecake ever</t>
+          <t>now and later  vegetarian empanadas</t>
         </is>
       </c>
     </row>
@@ -47327,11 +47327,11 @@
         </is>
       </c>
       <c r="D1876" t="n">
-        <v>39363</v>
+        <v>35653</v>
       </c>
       <c r="E1876" t="inlineStr">
         <is>
-          <t>the best  banana bread  or muffins</t>
+          <t>make it your way  shortcakes</t>
         </is>
       </c>
     </row>
@@ -47602,11 +47602,11 @@
         </is>
       </c>
       <c r="D1887" t="n">
-        <v>71635</v>
+        <v>71457</v>
       </c>
       <c r="E1887" t="inlineStr">
         <is>
-          <t>no bake  cookie crumble cheesecake</t>
+          <t>rise and shine  german fruit pancake</t>
         </is>
       </c>
     </row>
@@ -47627,11 +47627,11 @@
         </is>
       </c>
       <c r="D1888" t="n">
-        <v>62368</v>
+        <v>71635</v>
       </c>
       <c r="E1888" t="inlineStr">
         <is>
-          <t>the best  chocolate chip cheesecake ever</t>
+          <t>no bake  cookie crumble cheesecake</t>
         </is>
       </c>
     </row>
@@ -47652,11 +47652,11 @@
         </is>
       </c>
       <c r="D1889" t="n">
-        <v>71457</v>
+        <v>62368</v>
       </c>
       <c r="E1889" t="inlineStr">
         <is>
-          <t>rise and shine  german fruit pancake</t>
+          <t>the best  chocolate chip cheesecake ever</t>
         </is>
       </c>
     </row>
@@ -47802,11 +47802,11 @@
         </is>
       </c>
       <c r="D1895" t="n">
-        <v>107699</v>
+        <v>71457</v>
       </c>
       <c r="E1895" t="inlineStr">
         <is>
-          <t>deep fried dessert thingys</t>
+          <t>rise and shine  german fruit pancake</t>
         </is>
       </c>
     </row>
@@ -47827,11 +47827,11 @@
         </is>
       </c>
       <c r="D1896" t="n">
-        <v>26995</v>
+        <v>107699</v>
       </c>
       <c r="E1896" t="inlineStr">
         <is>
-          <t>keep it going  german friendship cake</t>
+          <t>deep fried dessert thingys</t>
         </is>
       </c>
     </row>
@@ -48752,11 +48752,11 @@
         </is>
       </c>
       <c r="D1933" t="n">
-        <v>25274</v>
+        <v>60219</v>
       </c>
       <c r="E1933" t="inlineStr">
         <is>
-          <t>aww  marinated olives</t>
+          <t>mexican pasta</t>
         </is>
       </c>
     </row>
@@ -48777,11 +48777,11 @@
         </is>
       </c>
       <c r="D1934" t="n">
-        <v>60219</v>
+        <v>25274</v>
       </c>
       <c r="E1934" t="inlineStr">
         <is>
-          <t>mexican pasta</t>
+          <t>aww  marinated olives</t>
         </is>
       </c>
     </row>
@@ -48802,11 +48802,11 @@
         </is>
       </c>
       <c r="D1935" t="n">
-        <v>54100</v>
+        <v>32169</v>
       </c>
       <c r="E1935" t="inlineStr">
         <is>
-          <t>grilled  venison burgers</t>
+          <t>make that chicken dance  salsa pasta</t>
         </is>
       </c>
     </row>
@@ -48827,11 +48827,11 @@
         </is>
       </c>
       <c r="D1936" t="n">
-        <v>107229</v>
+        <v>54100</v>
       </c>
       <c r="E1936" t="inlineStr">
         <is>
-          <t>open sesame  noodles</t>
+          <t>grilled  venison burgers</t>
         </is>
       </c>
     </row>
@@ -48902,11 +48902,11 @@
         </is>
       </c>
       <c r="D1939" t="n">
-        <v>49262</v>
+        <v>32169</v>
       </c>
       <c r="E1939" t="inlineStr">
         <is>
-          <t>easiest ever  hollandaise sauce</t>
+          <t>make that chicken dance  salsa pasta</t>
         </is>
       </c>
     </row>
@@ -48927,11 +48927,11 @@
         </is>
       </c>
       <c r="D1940" t="n">
-        <v>107229</v>
+        <v>49262</v>
       </c>
       <c r="E1940" t="inlineStr">
         <is>
-          <t>open sesame  noodles</t>
+          <t>easiest ever  hollandaise sauce</t>
         </is>
       </c>
     </row>
@@ -48952,11 +48952,11 @@
         </is>
       </c>
       <c r="D1941" t="n">
-        <v>32169</v>
+        <v>107229</v>
       </c>
       <c r="E1941" t="inlineStr">
         <is>
-          <t>make that chicken dance  salsa pasta</t>
+          <t>open sesame  noodles</t>
         </is>
       </c>
     </row>
@@ -48977,11 +48977,11 @@
         </is>
       </c>
       <c r="D1942" t="n">
-        <v>107229</v>
+        <v>32169</v>
       </c>
       <c r="E1942" t="inlineStr">
         <is>
-          <t>open sesame  noodles</t>
+          <t>make that chicken dance  salsa pasta</t>
         </is>
       </c>
     </row>
@@ -49002,11 +49002,11 @@
         </is>
       </c>
       <c r="D1943" t="n">
-        <v>32169</v>
+        <v>107229</v>
       </c>
       <c r="E1943" t="inlineStr">
         <is>
-          <t>make that chicken dance  salsa pasta</t>
+          <t>open sesame  noodles</t>
         </is>
       </c>
     </row>
@@ -49127,11 +49127,11 @@
         </is>
       </c>
       <c r="D1948" t="n">
-        <v>33606</v>
+        <v>30300</v>
       </c>
       <c r="E1948" t="inlineStr">
         <is>
-          <t>italian sandwich  pasta salad</t>
+          <t>munch without guilt  tomatoes</t>
         </is>
       </c>
     </row>
@@ -49152,11 +49152,11 @@
         </is>
       </c>
       <c r="D1949" t="n">
-        <v>32169</v>
+        <v>33606</v>
       </c>
       <c r="E1949" t="inlineStr">
         <is>
-          <t>make that chicken dance  salsa pasta</t>
+          <t>italian sandwich  pasta salad</t>
         </is>
       </c>
     </row>
@@ -49177,11 +49177,11 @@
         </is>
       </c>
       <c r="D1950" t="n">
-        <v>31490</v>
+        <v>32169</v>
       </c>
       <c r="E1950" t="inlineStr">
         <is>
-          <t>a bit different  breakfast pizza</t>
+          <t>make that chicken dance  salsa pasta</t>
         </is>
       </c>
     </row>
@@ -49202,11 +49202,11 @@
         </is>
       </c>
       <c r="D1951" t="n">
-        <v>30300</v>
+        <v>31490</v>
       </c>
       <c r="E1951" t="inlineStr">
         <is>
-          <t>munch without guilt  tomatoes</t>
+          <t>a bit different  breakfast pizza</t>
         </is>
       </c>
     </row>
@@ -51377,11 +51377,11 @@
         </is>
       </c>
       <c r="D2038" t="n">
-        <v>27087</v>
+        <v>39947</v>
       </c>
       <c r="E2038" t="inlineStr">
         <is>
-          <t>get the sensation  brownies</t>
+          <t>sugared grapes</t>
         </is>
       </c>
     </row>
@@ -51402,11 +51402,11 @@
         </is>
       </c>
       <c r="D2039" t="n">
-        <v>39947</v>
+        <v>27087</v>
       </c>
       <c r="E2039" t="inlineStr">
         <is>
-          <t>sugared grapes</t>
+          <t>get the sensation  brownies</t>
         </is>
       </c>
     </row>
@@ -51652,11 +51652,11 @@
         </is>
       </c>
       <c r="D2049" t="n">
-        <v>30300</v>
+        <v>71635</v>
       </c>
       <c r="E2049" t="inlineStr">
         <is>
-          <t>munch without guilt  tomatoes</t>
+          <t>no bake  cookie crumble cheesecake</t>
         </is>
       </c>
     </row>
@@ -51677,11 +51677,11 @@
         </is>
       </c>
       <c r="D2050" t="n">
-        <v>39363</v>
+        <v>30300</v>
       </c>
       <c r="E2050" t="inlineStr">
         <is>
-          <t>the best  banana bread  or muffins</t>
+          <t>munch without guilt  tomatoes</t>
         </is>
       </c>
     </row>
@@ -51702,11 +51702,11 @@
         </is>
       </c>
       <c r="D2051" t="n">
-        <v>84797</v>
+        <v>39363</v>
       </c>
       <c r="E2051" t="inlineStr">
         <is>
-          <t>love is in the air  beef fondue   sauces</t>
+          <t>the best  banana bread  or muffins</t>
         </is>
       </c>
     </row>
@@ -52502,11 +52502,11 @@
         </is>
       </c>
       <c r="D2083" t="n">
-        <v>103948</v>
+        <v>31490</v>
       </c>
       <c r="E2083" t="inlineStr">
         <is>
-          <t>smells like sunday  chicken fricassee with meatballs</t>
+          <t>a bit different  breakfast pizza</t>
         </is>
       </c>
     </row>
@@ -52527,11 +52527,11 @@
         </is>
       </c>
       <c r="D2084" t="n">
-        <v>39363</v>
+        <v>103948</v>
       </c>
       <c r="E2084" t="inlineStr">
         <is>
-          <t>the best  banana bread  or muffins</t>
+          <t>smells like sunday  chicken fricassee with meatballs</t>
         </is>
       </c>
     </row>
@@ -52552,11 +52552,11 @@
         </is>
       </c>
       <c r="D2085" t="n">
-        <v>31490</v>
+        <v>25775</v>
       </c>
       <c r="E2085" t="inlineStr">
         <is>
-          <t>a bit different  breakfast pizza</t>
+          <t>how i got my family to eat spinach  spinach casserole</t>
         </is>
       </c>
     </row>
@@ -52577,11 +52577,11 @@
         </is>
       </c>
       <c r="D2086" t="n">
-        <v>25775</v>
+        <v>39363</v>
       </c>
       <c r="E2086" t="inlineStr">
         <is>
-          <t>how i got my family to eat spinach  spinach casserole</t>
+          <t>the best  banana bread  or muffins</t>
         </is>
       </c>
     </row>
@@ -52627,11 +52627,11 @@
         </is>
       </c>
       <c r="D2088" t="n">
-        <v>22526</v>
+        <v>31490</v>
       </c>
       <c r="E2088" t="inlineStr">
         <is>
-          <t>land of nod  cinnamon buns</t>
+          <t>a bit different  breakfast pizza</t>
         </is>
       </c>
     </row>
@@ -52652,11 +52652,11 @@
         </is>
       </c>
       <c r="D2089" t="n">
-        <v>71457</v>
+        <v>22526</v>
       </c>
       <c r="E2089" t="inlineStr">
         <is>
-          <t>rise and shine  german fruit pancake</t>
+          <t>land of nod  cinnamon buns</t>
         </is>
       </c>
     </row>
@@ -52677,11 +52677,11 @@
         </is>
       </c>
       <c r="D2090" t="n">
-        <v>107229</v>
+        <v>71457</v>
       </c>
       <c r="E2090" t="inlineStr">
         <is>
-          <t>open sesame  noodles</t>
+          <t>rise and shine  german fruit pancake</t>
         </is>
       </c>
     </row>
@@ -52702,11 +52702,11 @@
         </is>
       </c>
       <c r="D2091" t="n">
-        <v>64045</v>
+        <v>25775</v>
       </c>
       <c r="E2091" t="inlineStr">
         <is>
-          <t>some like it hot</t>
+          <t>how i got my family to eat spinach  spinach casserole</t>
         </is>
       </c>
     </row>
@@ -52827,11 +52827,11 @@
         </is>
       </c>
       <c r="D2096" t="n">
-        <v>107699</v>
+        <v>31490</v>
       </c>
       <c r="E2096" t="inlineStr">
         <is>
-          <t>deep fried dessert thingys</t>
+          <t>a bit different  breakfast pizza</t>
         </is>
       </c>
     </row>
@@ -52852,11 +52852,11 @@
         </is>
       </c>
       <c r="D2097" t="n">
-        <v>63793</v>
+        <v>31490</v>
       </c>
       <c r="E2097" t="inlineStr">
         <is>
-          <t>tide me over   indian chaat  simple veggie salad</t>
+          <t>a bit different  breakfast pizza</t>
         </is>
       </c>
     </row>
@@ -52877,11 +52877,11 @@
         </is>
       </c>
       <c r="D2098" t="n">
-        <v>42570</v>
+        <v>63793</v>
       </c>
       <c r="E2098" t="inlineStr">
         <is>
-          <t>pick me up  party chicken kabobs</t>
+          <t>tide me over   indian chaat  simple veggie salad</t>
         </is>
       </c>
     </row>
@@ -52902,11 +52902,11 @@
         </is>
       </c>
       <c r="D2099" t="n">
-        <v>31490</v>
+        <v>42570</v>
       </c>
       <c r="E2099" t="inlineStr">
         <is>
-          <t>a bit different  breakfast pizza</t>
+          <t>pick me up  party chicken kabobs</t>
         </is>
       </c>
     </row>
@@ -53777,11 +53777,11 @@
         </is>
       </c>
       <c r="D2134" t="n">
-        <v>27087</v>
+        <v>112959</v>
       </c>
       <c r="E2134" t="inlineStr">
         <is>
-          <t>get the sensation  brownies</t>
+          <t>sour cream  avocado dip  vegan</t>
         </is>
       </c>
     </row>
@@ -53802,11 +53802,11 @@
         </is>
       </c>
       <c r="D2135" t="n">
-        <v>112959</v>
+        <v>27087</v>
       </c>
       <c r="E2135" t="inlineStr">
         <is>
-          <t>sour cream  avocado dip  vegan</t>
+          <t>get the sensation  brownies</t>
         </is>
       </c>
     </row>
@@ -53902,11 +53902,11 @@
         </is>
       </c>
       <c r="D2139" t="n">
-        <v>54272</v>
+        <v>23850</v>
       </c>
       <c r="E2139" t="inlineStr">
         <is>
-          <t>fool the meat eaters  chili</t>
+          <t>cream  of cauliflower soup  vegan</t>
         </is>
       </c>
     </row>
@@ -53927,11 +53927,11 @@
         </is>
       </c>
       <c r="D2140" t="n">
-        <v>42570</v>
+        <v>54272</v>
       </c>
       <c r="E2140" t="inlineStr">
         <is>
-          <t>pick me up  party chicken kabobs</t>
+          <t>fool the meat eaters  chili</t>
         </is>
       </c>
     </row>
@@ -53952,11 +53952,11 @@
         </is>
       </c>
       <c r="D2141" t="n">
-        <v>8559</v>
+        <v>42570</v>
       </c>
       <c r="E2141" t="inlineStr">
         <is>
-          <t>chinese  chop suey</t>
+          <t>pick me up  party chicken kabobs</t>
         </is>
       </c>
     </row>
@@ -55152,11 +55152,11 @@
         </is>
       </c>
       <c r="D2189" t="n">
-        <v>33606</v>
+        <v>87098</v>
       </c>
       <c r="E2189" t="inlineStr">
         <is>
-          <t>italian sandwich  pasta salad</t>
+          <t>homemade  vegetable soup from a can</t>
         </is>
       </c>
     </row>
@@ -55177,11 +55177,11 @@
         </is>
       </c>
       <c r="D2190" t="n">
-        <v>32169</v>
+        <v>33606</v>
       </c>
       <c r="E2190" t="inlineStr">
         <is>
-          <t>make that chicken dance  salsa pasta</t>
+          <t>italian sandwich  pasta salad</t>
         </is>
       </c>
     </row>
@@ -55202,11 +55202,11 @@
         </is>
       </c>
       <c r="D2191" t="n">
-        <v>90921</v>
+        <v>32169</v>
       </c>
       <c r="E2191" t="inlineStr">
         <is>
-          <t>i stole the idea from mirj  sesame noodles</t>
+          <t>make that chicken dance  salsa pasta</t>
         </is>
       </c>
     </row>
